--- a/CadastralParcel.xlsx
+++ b/CadastralParcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jotgr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jotgr\Desktop\sberbank\Cadastral_parcel_photo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAE28E4-2D70-493A-A1C1-304F03770E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9614C8C8-4406-4C76-AA3D-B1F58198F26B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57296751-6642-46C4-B060-6406F0CBDF27}"/>
   </bookViews>
@@ -30,26 +30,26 @@
     <t>77:01:0001034:1071</t>
   </si>
   <si>
-    <t>54:35:101256:17</t>
-  </si>
-  <si>
-    <t>03:24:011204:11</t>
-  </si>
-  <si>
     <t>38:36:000012:4033</t>
   </si>
   <si>
-    <t>02:55:010830:13</t>
-  </si>
-  <si>
     <t>Cadastral parcel</t>
+  </si>
+  <si>
+    <t>77:01:0001005:1028</t>
+  </si>
+  <si>
+    <t>77:01:0006017:1034</t>
+  </si>
+  <si>
+    <t>38:36:000034:3058</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,13 +58,31 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2D2E30"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2D2E30"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -79,8 +97,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -397,44 +419,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07712BB3-2C06-4329-8E0D-9DF67481B5D7}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>